--- a/landuse_colors.xlsx
+++ b/landuse_colors.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788D97B9-2D78-48BE-803A-2F88AD92153D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10D51D4-C915-486E-A0E9-07968C7E0A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$48</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="184">
   <si>
     <t>토지이용 구분</t>
   </si>
@@ -40,6 +37,96 @@
     <t>B</t>
   </si>
   <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>이미지 경로</t>
+  </si>
+  <si>
+    <t>제1종전용주거지역</t>
+  </si>
+  <si>
+    <t>제2종전용주거지역</t>
+  </si>
+  <si>
+    <t>제1종일반주거지역</t>
+  </si>
+  <si>
+    <t>제2종일반주거지역</t>
+  </si>
+  <si>
+    <t>제3종일반주거지역</t>
+  </si>
+  <si>
+    <t>준주거지역</t>
+  </si>
+  <si>
+    <t>중심상업지역</t>
+  </si>
+  <si>
+    <t>일반상업지역</t>
+  </si>
+  <si>
+    <t>근린상업지역</t>
+  </si>
+  <si>
+    <t>유통상업지역</t>
+  </si>
+  <si>
+    <t>전용공업지역</t>
+  </si>
+  <si>
+    <t>일반공업지역</t>
+  </si>
+  <si>
+    <t>준공업지역</t>
+  </si>
+  <si>
+    <t>보전녹지지역</t>
+  </si>
+  <si>
+    <t>자연녹지지역</t>
+  </si>
+  <si>
+    <t>생산녹지지역</t>
+  </si>
+  <si>
+    <t>계획관리지역</t>
+  </si>
+  <si>
+    <t>생산관리지역</t>
+  </si>
+  <si>
+    <t>보전관리지역</t>
+  </si>
+  <si>
+    <t>농림지역</t>
+  </si>
+  <si>
+    <t>자연환경보전지역</t>
+  </si>
+  <si>
+    <t>개발제한구역</t>
+  </si>
+  <si>
+    <t>도시자연공원구역</t>
+  </si>
+  <si>
+    <t>공원(어린이·근린·문화·체육)</t>
+  </si>
+  <si>
+    <t>녹지</t>
+  </si>
+  <si>
+    <t>유원지</t>
+  </si>
+  <si>
+    <t>체육시설</t>
+  </si>
+  <si>
+    <t>유통업무설비</t>
+  </si>
+  <si>
     <t>단독주택</t>
   </si>
   <si>
@@ -67,7 +154,7 @@
     <t>공공청사</t>
   </si>
   <si>
-    <t>학교</t>
+    <t>학교(유, 초, 중, 고)</t>
   </si>
   <si>
     <t>종교용지</t>
@@ -94,9 +181,6 @@
     <t>시장</t>
   </si>
   <si>
-    <t>유통업무설비</t>
-  </si>
-  <si>
     <t>자동차정류장</t>
   </si>
   <si>
@@ -130,15 +214,12 @@
     <t>연결녹지</t>
   </si>
   <si>
-    <t>공동공지</t>
+    <t>소공원</t>
   </si>
   <si>
     <t>광장</t>
   </si>
   <si>
-    <t>유원지</t>
-  </si>
-  <si>
     <t>운동장</t>
   </si>
   <si>
@@ -148,7 +229,7 @@
     <t>저류지</t>
   </si>
   <si>
-    <t>수돗용지</t>
+    <t>수문유지</t>
   </si>
   <si>
     <t>하수도시설</t>
@@ -179,6 +260,319 @@
   </si>
   <si>
     <t>재활용회수시설</t>
+  </si>
+  <si>
+    <t>#FFFF80</t>
+  </si>
+  <si>
+    <t>#FFFF00</t>
+  </si>
+  <si>
+    <t>#FFCC99</t>
+  </si>
+  <si>
+    <t>#FF99CC</t>
+  </si>
+  <si>
+    <t>#CC99FF</t>
+  </si>
+  <si>
+    <t>#99FF99</t>
+  </si>
+  <si>
+    <t>#00CC66</t>
+  </si>
+  <si>
+    <t>#FFCC66</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>#9966FF</t>
+  </si>
+  <si>
+    <t>#9999FF</t>
+  </si>
+  <si>
+    <t>#99CC00</t>
+  </si>
+  <si>
+    <t>#FF66CC</t>
+  </si>
+  <si>
+    <t>#99CCFF</t>
+  </si>
+  <si>
+    <t>#CCCCFF</t>
+  </si>
+  <si>
+    <t>#66CC99</t>
+  </si>
+  <si>
+    <t>#FF9933</t>
+  </si>
+  <si>
+    <t>#CC9966</t>
+  </si>
+  <si>
+    <t>#999999</t>
+  </si>
+  <si>
+    <t>#CCCCCC</t>
+  </si>
+  <si>
+    <t>#6699FF</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
+  </si>
+  <si>
+    <t>#CCFF99</t>
+  </si>
+  <si>
+    <t>#CCFFFF</t>
+  </si>
+  <si>
+    <t>#66B2FF</t>
+  </si>
+  <si>
+    <t>#66CCFF</t>
+  </si>
+  <si>
+    <t>#FFCCCC</t>
+  </si>
+  <si>
+    <t>#FFFFCC</t>
+  </si>
+  <si>
+    <t>#CCCC99</t>
+  </si>
+  <si>
+    <t>#CCFFCC</t>
+  </si>
+  <si>
+    <t>images/image01.png</t>
+  </si>
+  <si>
+    <t>images/image02.png</t>
+  </si>
+  <si>
+    <t>images/image03.png</t>
+  </si>
+  <si>
+    <t>images/image04.png</t>
+  </si>
+  <si>
+    <t>images/image05.png</t>
+  </si>
+  <si>
+    <t>images/image06.png</t>
+  </si>
+  <si>
+    <t>images/image07.png</t>
+  </si>
+  <si>
+    <t>images/image08.png</t>
+  </si>
+  <si>
+    <t>images/image09.png</t>
+  </si>
+  <si>
+    <t>images/image10.png</t>
+  </si>
+  <si>
+    <t>images/image11.png</t>
+  </si>
+  <si>
+    <t>images/image12.png</t>
+  </si>
+  <si>
+    <t>images/image13.png</t>
+  </si>
+  <si>
+    <t>images/image14.png</t>
+  </si>
+  <si>
+    <t>images/image15.png</t>
+  </si>
+  <si>
+    <t>images/image16.png</t>
+  </si>
+  <si>
+    <t>images/image17.png</t>
+  </si>
+  <si>
+    <t>images/image18.png</t>
+  </si>
+  <si>
+    <t>images/image19.png</t>
+  </si>
+  <si>
+    <t>images/image20.png</t>
+  </si>
+  <si>
+    <t>images/image21.png</t>
+  </si>
+  <si>
+    <t>images/image22.png</t>
+  </si>
+  <si>
+    <t>images/image23.png</t>
+  </si>
+  <si>
+    <t>images/image24.png</t>
+  </si>
+  <si>
+    <t>images/image25.png</t>
+  </si>
+  <si>
+    <t>images/image26.png</t>
+  </si>
+  <si>
+    <t>images/image27.png</t>
+  </si>
+  <si>
+    <t>images/image28.png</t>
+  </si>
+  <si>
+    <t>images/image29.png</t>
+  </si>
+  <si>
+    <t>images/image30.png</t>
+  </si>
+  <si>
+    <t>images/image31.png</t>
+  </si>
+  <si>
+    <t>images/image32.png</t>
+  </si>
+  <si>
+    <t>images/image33.png</t>
+  </si>
+  <si>
+    <t>images/image34.png</t>
+  </si>
+  <si>
+    <t>images/image35.png</t>
+  </si>
+  <si>
+    <t>images/image36.png</t>
+  </si>
+  <si>
+    <t>images/image37.png</t>
+  </si>
+  <si>
+    <t>images/image38.png</t>
+  </si>
+  <si>
+    <t>images/image39.png</t>
+  </si>
+  <si>
+    <t>images/image40.png</t>
+  </si>
+  <si>
+    <t>images/image41.png</t>
+  </si>
+  <si>
+    <t>images/image42.png</t>
+  </si>
+  <si>
+    <t>images/image43.png</t>
+  </si>
+  <si>
+    <t>images/image44.png</t>
+  </si>
+  <si>
+    <t>images/image45.png</t>
+  </si>
+  <si>
+    <t>images/image46.png</t>
+  </si>
+  <si>
+    <t>images/image47.png</t>
+  </si>
+  <si>
+    <t>images/image48.png</t>
+  </si>
+  <si>
+    <t>images/image49.png</t>
+  </si>
+  <si>
+    <t>images/image50.png</t>
+  </si>
+  <si>
+    <t>images/image51.png</t>
+  </si>
+  <si>
+    <t>images/image52.png</t>
+  </si>
+  <si>
+    <t>images/image53.png</t>
+  </si>
+  <si>
+    <t>images/image54.png</t>
+  </si>
+  <si>
+    <t>images/image55.png</t>
+  </si>
+  <si>
+    <t>images/image56.png</t>
+  </si>
+  <si>
+    <t>images/image57.png</t>
+  </si>
+  <si>
+    <t>images/image58.png</t>
+  </si>
+  <si>
+    <t>images/image59.png</t>
+  </si>
+  <si>
+    <t>images/image60.png</t>
+  </si>
+  <si>
+    <t>images/image61.png</t>
+  </si>
+  <si>
+    <t>images/image62.png</t>
+  </si>
+  <si>
+    <t>images/image63.png</t>
+  </si>
+  <si>
+    <t>images/image64.png</t>
+  </si>
+  <si>
+    <t>images/image65.png</t>
+  </si>
+  <si>
+    <t>images/image66.png</t>
+  </si>
+  <si>
+    <t>images/image67.png</t>
+  </si>
+  <si>
+    <t>images/image68.png</t>
+  </si>
+  <si>
+    <t>images/image69.png</t>
+  </si>
+  <si>
+    <t>images/image70.png</t>
+  </si>
+  <si>
+    <t>images/image71.png</t>
+  </si>
+  <si>
+    <t>images/image72.png</t>
+  </si>
+  <si>
+    <t>images/image73.png</t>
+  </si>
+  <si>
+    <t>#99CCFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -587,20 +981,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" customWidth="1"/>
+    <col min="3" max="5" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,10 +1012,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>51</v>
@@ -633,78 +1035,108 @@
       <c r="E2">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>255</v>
       </c>
       <c r="D3">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>255</v>
       </c>
       <c r="D4">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="E4">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>255</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>255</v>
       </c>
       <c r="D6">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -718,418 +1150,553 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="C8">
         <v>255</v>
       </c>
       <c r="D8">
+        <v>153</v>
+      </c>
+      <c r="E8">
+        <v>204</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>231</v>
+      </c>
+      <c r="C9">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <v>153</v>
+      </c>
+      <c r="E9">
+        <v>204</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>231</v>
+      </c>
+      <c r="C10">
+        <v>255</v>
+      </c>
+      <c r="D10">
+        <v>153</v>
+      </c>
+      <c r="E10">
+        <v>204</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>231</v>
+      </c>
+      <c r="C11">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>153</v>
+      </c>
+      <c r="E11">
+        <v>204</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>191</v>
+      </c>
+      <c r="C12">
+        <v>204</v>
+      </c>
+      <c r="D12">
+        <v>153</v>
+      </c>
+      <c r="E12">
+        <v>255</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>191</v>
+      </c>
+      <c r="C13">
+        <v>204</v>
+      </c>
+      <c r="D13">
+        <v>153</v>
+      </c>
+      <c r="E13">
+        <v>255</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>191</v>
+      </c>
+      <c r="C14">
+        <v>204</v>
+      </c>
+      <c r="D14">
+        <v>153</v>
+      </c>
+      <c r="E14">
+        <v>255</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>71</v>
+      </c>
+      <c r="C15">
+        <v>153</v>
+      </c>
+      <c r="D15">
+        <v>255</v>
+      </c>
+      <c r="E15">
+        <v>153</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>71</v>
+      </c>
+      <c r="C16">
+        <v>153</v>
+      </c>
+      <c r="D16">
+        <v>255</v>
+      </c>
+      <c r="E16">
+        <v>153</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>153</v>
+      </c>
+      <c r="D17">
+        <v>255</v>
+      </c>
+      <c r="E17">
+        <v>153</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>153</v>
+      </c>
+      <c r="D19">
+        <v>255</v>
+      </c>
+      <c r="E19">
+        <v>153</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>153</v>
+      </c>
+      <c r="D20">
+        <v>255</v>
+      </c>
+      <c r="E20">
+        <v>153</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
         <v>128</v>
       </c>
-      <c r="E8">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>150</v>
-      </c>
-      <c r="C9">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>153</v>
+      </c>
+      <c r="D21">
+        <v>255</v>
+      </c>
+      <c r="E21">
+        <v>153</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>131</v>
+      </c>
+      <c r="C22">
+        <v>153</v>
+      </c>
+      <c r="D22">
+        <v>204</v>
+      </c>
+      <c r="E22">
+        <v>255</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>131</v>
+      </c>
+      <c r="C23">
+        <v>153</v>
+      </c>
+      <c r="D23">
+        <v>204</v>
+      </c>
+      <c r="E23">
+        <v>255</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>82</v>
+      </c>
+      <c r="C24">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D24">
+        <v>204</v>
+      </c>
+      <c r="E24">
         <v>102</v>
       </c>
-      <c r="E9">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>150</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>102</v>
-      </c>
-      <c r="E10">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>130</v>
-      </c>
-      <c r="C11">
-        <v>153</v>
-      </c>
-      <c r="D11">
-        <v>204</v>
-      </c>
-      <c r="E11">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>211</v>
-      </c>
-      <c r="C12">
-        <v>255</v>
-      </c>
-      <c r="D12">
-        <v>153</v>
-      </c>
-      <c r="E12">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>151</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>153</v>
-      </c>
-      <c r="E13">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>161</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>161</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>161</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>113</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>153</v>
-      </c>
-      <c r="E17">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>255</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>255</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>220</v>
-      </c>
-      <c r="C20">
-        <v>255</v>
-      </c>
-      <c r="D20">
-        <v>102</v>
-      </c>
-      <c r="E20">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>243</v>
-      </c>
-      <c r="C21">
-        <v>153</v>
-      </c>
-      <c r="D21">
-        <v>153</v>
-      </c>
-      <c r="E21">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>253</v>
-      </c>
-      <c r="C22">
-        <v>128</v>
-      </c>
-      <c r="D22">
-        <v>128</v>
-      </c>
-      <c r="E22">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>254</v>
-      </c>
-      <c r="C23">
-        <v>96</v>
-      </c>
-      <c r="D23">
-        <v>96</v>
-      </c>
-      <c r="E23">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>142</v>
-      </c>
-      <c r="C24">
-        <v>102</v>
-      </c>
-      <c r="D24">
-        <v>255</v>
-      </c>
-      <c r="E24">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D26">
         <v>255</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D27">
         <v>255</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D28">
         <v>255</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="C29">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="D29">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="E29">
         <v>204</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C30">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="D30">
         <v>255</v>
       </c>
       <c r="E30">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C31">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="D31">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="E31">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>40</v>
@@ -1143,281 +1710,980 @@
       <c r="E32">
         <v>153</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>255</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>255</v>
+      </c>
+      <c r="D34">
+        <v>255</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>255</v>
+      </c>
+      <c r="D35">
+        <v>255</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>201</v>
+      </c>
+      <c r="C36">
+        <v>153</v>
+      </c>
+      <c r="D36">
+        <v>102</v>
+      </c>
+      <c r="E36">
+        <v>255</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>150</v>
+      </c>
+      <c r="C37">
+        <v>153</v>
+      </c>
+      <c r="D37">
+        <v>153</v>
+      </c>
+      <c r="E37">
+        <v>255</v>
+      </c>
+      <c r="F37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="C33">
-        <v>255</v>
-      </c>
-      <c r="D33">
-        <v>255</v>
-      </c>
-      <c r="E33">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
+      <c r="B38">
+        <v>150</v>
+      </c>
+      <c r="C38">
+        <v>153</v>
+      </c>
+      <c r="D38">
+        <v>153</v>
+      </c>
+      <c r="E38">
+        <v>255</v>
+      </c>
+      <c r="F38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+      <c r="C39">
+        <v>153</v>
+      </c>
+      <c r="D39">
+        <v>204</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>211</v>
+      </c>
+      <c r="C40">
+        <v>255</v>
+      </c>
+      <c r="D40">
+        <v>102</v>
+      </c>
+      <c r="E40">
+        <v>204</v>
+      </c>
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>151</v>
+      </c>
+      <c r="C41">
+        <v>153</v>
+      </c>
+      <c r="D41">
+        <v>204</v>
+      </c>
+      <c r="E41">
+        <v>255</v>
+      </c>
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>161</v>
+      </c>
+      <c r="C42">
+        <v>204</v>
+      </c>
+      <c r="D42">
+        <v>204</v>
+      </c>
+      <c r="E42">
+        <v>255</v>
+      </c>
+      <c r="F42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>161</v>
+      </c>
+      <c r="C43">
+        <v>204</v>
+      </c>
+      <c r="D43">
+        <v>204</v>
+      </c>
+      <c r="E43">
+        <v>255</v>
+      </c>
+      <c r="F43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>161</v>
+      </c>
+      <c r="C44">
+        <v>204</v>
+      </c>
+      <c r="D44">
+        <v>204</v>
+      </c>
+      <c r="E44">
+        <v>255</v>
+      </c>
+      <c r="F44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>113</v>
+      </c>
+      <c r="C45">
+        <v>102</v>
+      </c>
+      <c r="D45">
+        <v>204</v>
+      </c>
+      <c r="E45">
+        <v>153</v>
+      </c>
+      <c r="F45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>255</v>
+      </c>
+      <c r="D46">
+        <v>153</v>
+      </c>
+      <c r="E46">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>255</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>243</v>
+      </c>
+      <c r="C48">
+        <v>204</v>
+      </c>
+      <c r="D48">
+        <v>153</v>
+      </c>
+      <c r="E48">
+        <v>102</v>
+      </c>
+      <c r="F48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>253</v>
+      </c>
+      <c r="C49">
+        <v>153</v>
+      </c>
+      <c r="D49">
+        <v>153</v>
+      </c>
+      <c r="E49">
+        <v>153</v>
+      </c>
+      <c r="F49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>254</v>
+      </c>
+      <c r="C50">
+        <v>204</v>
+      </c>
+      <c r="D50">
+        <v>204</v>
+      </c>
+      <c r="E50">
+        <v>204</v>
+      </c>
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="C34">
-        <v>255</v>
-      </c>
-      <c r="D34">
-        <v>255</v>
-      </c>
-      <c r="E34">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35">
+      <c r="B51">
+        <v>142</v>
+      </c>
+      <c r="C51">
+        <v>102</v>
+      </c>
+      <c r="D51">
+        <v>153</v>
+      </c>
+      <c r="E51">
+        <v>255</v>
+      </c>
+      <c r="F51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>92</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>255</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>92</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>255</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>92</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>255</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>92</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>255</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>70</v>
+      </c>
+      <c r="C56">
+        <v>204</v>
+      </c>
+      <c r="D56">
+        <v>255</v>
+      </c>
+      <c r="E56">
+        <v>153</v>
+      </c>
+      <c r="F56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>70</v>
+      </c>
+      <c r="C57">
+        <v>204</v>
+      </c>
+      <c r="D57">
+        <v>255</v>
+      </c>
+      <c r="E57">
+        <v>153</v>
+      </c>
+      <c r="F57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>70</v>
+      </c>
+      <c r="C58">
+        <v>204</v>
+      </c>
+      <c r="D58">
+        <v>255</v>
+      </c>
+      <c r="E58">
+        <v>153</v>
+      </c>
+      <c r="F58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>92</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>255</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>101</v>
+      </c>
+      <c r="G59" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>43</v>
+      </c>
+      <c r="C60">
+        <v>204</v>
+      </c>
+      <c r="D60">
+        <v>204</v>
+      </c>
+      <c r="E60">
+        <v>204</v>
+      </c>
+      <c r="F60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
         <v>124</v>
       </c>
-      <c r="C35">
-        <v>255</v>
-      </c>
-      <c r="D35">
-        <v>153</v>
-      </c>
-      <c r="E35">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36">
+      <c r="C61">
+        <v>204</v>
+      </c>
+      <c r="D61">
+        <v>255</v>
+      </c>
+      <c r="E61">
+        <v>255</v>
+      </c>
+      <c r="F61" t="s">
+        <v>103</v>
+      </c>
+      <c r="G61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
         <v>140</v>
       </c>
-      <c r="C36">
+      <c r="C62">
         <v>102</v>
       </c>
-      <c r="D36">
+      <c r="D62">
         <v>178</v>
       </c>
-      <c r="E36">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37">
+      <c r="E62">
+        <v>255</v>
+      </c>
+      <c r="F62" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
         <v>141</v>
       </c>
-      <c r="C37">
+      <c r="C63">
         <v>102</v>
       </c>
-      <c r="D37">
-        <v>204</v>
-      </c>
-      <c r="E37">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>153</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>204</v>
-      </c>
-      <c r="E38">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+      <c r="D63">
+        <v>204</v>
+      </c>
+      <c r="E63">
+        <v>255</v>
+      </c>
+      <c r="F63" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>141</v>
+      </c>
+      <c r="C64">
+        <v>102</v>
+      </c>
+      <c r="D64">
+        <v>204</v>
+      </c>
+      <c r="E64">
+        <v>255</v>
+      </c>
+      <c r="F64" t="s">
+        <v>105</v>
+      </c>
+      <c r="G64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>153</v>
+      </c>
+      <c r="C65">
+        <v>204</v>
+      </c>
+      <c r="D65">
+        <v>255</v>
+      </c>
+      <c r="E65">
+        <v>255</v>
+      </c>
+      <c r="F65" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>223</v>
+      </c>
+      <c r="C66">
+        <v>255</v>
+      </c>
+      <c r="D66">
+        <v>204</v>
+      </c>
+      <c r="E66">
+        <v>204</v>
+      </c>
+      <c r="F66" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>223</v>
+      </c>
+      <c r="C67">
+        <v>255</v>
+      </c>
+      <c r="D67">
+        <v>204</v>
+      </c>
+      <c r="E67">
+        <v>204</v>
+      </c>
+      <c r="F67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>223</v>
+      </c>
+      <c r="C68">
+        <v>255</v>
+      </c>
+      <c r="D68">
+        <v>204</v>
+      </c>
+      <c r="E68">
+        <v>204</v>
+      </c>
+      <c r="F68" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>223</v>
+      </c>
+      <c r="C69">
+        <v>255</v>
+      </c>
+      <c r="D69">
+        <v>204</v>
+      </c>
+      <c r="E69">
+        <v>204</v>
+      </c>
+      <c r="F69" t="s">
+        <v>106</v>
+      </c>
+      <c r="G69" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
         <v>42</v>
       </c>
-      <c r="B39">
-        <v>153</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>204</v>
-      </c>
-      <c r="E39">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40">
-        <v>223</v>
-      </c>
-      <c r="C40">
-        <v>255</v>
-      </c>
-      <c r="D40">
-        <v>51</v>
-      </c>
-      <c r="E40">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41">
-        <v>223</v>
-      </c>
-      <c r="C41">
-        <v>255</v>
-      </c>
-      <c r="D41">
-        <v>51</v>
-      </c>
-      <c r="E41">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>223</v>
-      </c>
-      <c r="C42">
-        <v>255</v>
-      </c>
-      <c r="D42">
-        <v>51</v>
-      </c>
-      <c r="E42">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43">
-        <v>223</v>
-      </c>
-      <c r="C43">
-        <v>255</v>
-      </c>
-      <c r="D43">
-        <v>51</v>
-      </c>
-      <c r="E43">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44">
+      <c r="C70">
+        <v>255</v>
+      </c>
+      <c r="D70">
+        <v>255</v>
+      </c>
+      <c r="E70">
+        <v>204</v>
+      </c>
+      <c r="F70" t="s">
+        <v>107</v>
+      </c>
+      <c r="G70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
         <v>42</v>
       </c>
-      <c r="C44">
-        <v>255</v>
-      </c>
-      <c r="D44">
-        <v>255</v>
-      </c>
-      <c r="E44">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>42</v>
-      </c>
-      <c r="C45">
-        <v>255</v>
-      </c>
-      <c r="D45">
-        <v>255</v>
-      </c>
-      <c r="E45">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46">
+      <c r="C71">
+        <v>255</v>
+      </c>
+      <c r="D71">
+        <v>255</v>
+      </c>
+      <c r="E71">
+        <v>204</v>
+      </c>
+      <c r="F71" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
         <v>241</v>
       </c>
-      <c r="C46">
-        <v>204</v>
-      </c>
-      <c r="D46">
-        <v>204</v>
-      </c>
-      <c r="E46">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47">
+      <c r="C72">
+        <v>204</v>
+      </c>
+      <c r="D72">
+        <v>204</v>
+      </c>
+      <c r="E72">
+        <v>153</v>
+      </c>
+      <c r="F72" t="s">
+        <v>108</v>
+      </c>
+      <c r="G72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
         <v>71</v>
       </c>
-      <c r="C47">
-        <v>153</v>
-      </c>
-      <c r="D47">
-        <v>255</v>
-      </c>
-      <c r="E47">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48">
+      <c r="C73">
+        <v>153</v>
+      </c>
+      <c r="D73">
+        <v>255</v>
+      </c>
+      <c r="E73">
+        <v>153</v>
+      </c>
+      <c r="F73" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
         <v>63</v>
       </c>
-      <c r="C48">
-        <v>255</v>
-      </c>
-      <c r="D48">
-        <v>255</v>
-      </c>
-      <c r="E48">
-        <v>64</v>
+      <c r="C74">
+        <v>204</v>
+      </c>
+      <c r="D74">
+        <v>255</v>
+      </c>
+      <c r="E74">
+        <v>204</v>
+      </c>
+      <c r="F74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G74" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E48" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
